--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/finanz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B19B3A-3FAC-7748-87AC-D0CBD0570776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D446164E-93E3-4645-A1C5-B0F4347334E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="5" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Ohne Haus" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3 Hausbau voll" sheetId="3" r:id="rId3"/>
     <sheet name="4 Pacht ohne Haus" sheetId="6" r:id="rId4"/>
     <sheet name="5 Pacht mit Haus" sheetId="7" r:id="rId5"/>
+    <sheet name="Kostenverteilung" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +43,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{1B7F6C3D-B47A-5B4F-ADA1-FA36652C894C}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{1B7F6C3D-B47A-5B4F-ADA1-FA36652C894C}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{0DBB8218-971B-AB43-9FA9-AB0FCC4B9469}">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{0DBB8218-971B-AB43-9FA9-AB0FCC4B9469}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{DB31BF30-863E-6B4C-A869-1FE2041DB9B5}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{DB31BF30-863E-6B4C-A869-1FE2041DB9B5}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{0DA0280E-26D4-AE4D-98AF-D3E8C5E04097}">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{0DA0280E-26D4-AE4D-98AF-D3E8C5E04097}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{25CA8209-F869-CB45-8EB1-5E37ADC72202}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{25CA8209-F869-CB45-8EB1-5E37ADC72202}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{5A0CFC80-AE0B-F346-A8EA-F069BC5DECC6}">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{5A0CFC80-AE0B-F346-A8EA-F069BC5DECC6}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>Zins</t>
   </si>
@@ -248,12 +249,87 @@
   </si>
   <si>
     <t>Grundstueckspacht mit Hausbau</t>
+  </si>
+  <si>
+    <t>Anja Bremer</t>
+  </si>
+  <si>
+    <t>Barbara Stecher</t>
+  </si>
+  <si>
+    <t>Doris Platania</t>
+  </si>
+  <si>
+    <t>Jeremy Tammik</t>
+  </si>
+  <si>
+    <t>Michael Schreier</t>
+  </si>
+  <si>
+    <t>Nathalie Fickenscher</t>
+  </si>
+  <si>
+    <t>Araceli + Joerg</t>
+  </si>
+  <si>
+    <t>Gemeinschaft</t>
+  </si>
+  <si>
+    <t>N.N. OG</t>
+  </si>
+  <si>
+    <t>N.N. DG</t>
+  </si>
+  <si>
+    <t>qm</t>
+  </si>
+  <si>
+    <t>Anteil</t>
+  </si>
+  <si>
+    <t>Kostenanteil</t>
+  </si>
+  <si>
+    <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>Objekt</t>
+  </si>
+  <si>
+    <t>Haus</t>
+  </si>
+  <si>
+    <t>Grund</t>
+  </si>
+  <si>
+    <t>Anzahl P.</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>ohne Kredit</t>
+  </si>
+  <si>
+    <t>Gemeinschaftsraeume</t>
+  </si>
+  <si>
+    <t>Faktor</t>
+  </si>
+  <si>
+    <t>anz. Pers.</t>
+  </si>
+  <si>
+    <t>Haus+Gem+Gr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -284,12 +360,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -304,11 +398,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +727,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,47 +755,47 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C5" s="1">
         <f>B5+1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:L5" si="0">C5+1</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1543,7 +1644,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1566,47 +1667,47 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C5" s="1">
         <f>B5+1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:L5" si="0">C5+1</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2493,10 +2594,1019 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC170F76-96F2-0A40-9828-AC9A4EFAD63F}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D23"/>
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5+1</f>
+        <v>2022</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:M5" si="0">D5+1</f>
+        <v>2023</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C21</f>
+        <v>250000</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7+D21</f>
+        <v>250000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:M8" si="1">D7+E21</f>
+        <v>250000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:C9" si="2">C22</f>
+        <v>300000</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8+D22</f>
+        <v>600000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>550000</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9-C13+D23</f>
+        <v>539000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:M9" si="3">D9-D13+E23</f>
+        <v>1228220</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>1203655.6000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>1179582.4880000001</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>1155990.8382400002</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>1132871.0214752001</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>1110213.6010456961</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>1088009.3290247822</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>1066249.1424442865</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>1044924.1595954008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM(B7:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM(C7:C9)</f>
+        <v>1100000</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:M10" si="4">SUM(D7:D9)</f>
+        <v>1389000</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>2378220</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
+        <v>2353655.6</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="4"/>
+        <v>2329582.4879999999</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>2305990.8382400004</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="4"/>
+        <v>2282871.0214752001</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="4"/>
+        <v>2260213.6010456961</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="4"/>
+        <v>2238009.3290247824</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>2216249.1424442865</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="4"/>
+        <v>2194924.159595401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f>0.02*C9</f>
+        <v>11000</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:M13" si="5">0.02*D9</f>
+        <v>10780</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>24564.400000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="5"/>
+        <v>24073.112000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="5"/>
+        <v>23591.649760000004</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="5"/>
+        <v>23119.816764800005</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="5"/>
+        <v>22657.420429504004</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="5"/>
+        <v>22204.272020913922</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
+        <v>21760.186580495643</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="5"/>
+        <v>21324.982848885731</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="5"/>
+        <v>20898.483191908017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>0.01*C9</f>
+        <v>5500</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:M14" si="6">0.01*D9</f>
+        <v>5390</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="6"/>
+        <v>12282.2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="6"/>
+        <v>12036.556</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
+        <v>11795.824880000002</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="6"/>
+        <v>11559.908382400003</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="6"/>
+        <v>11328.710214752002</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="6"/>
+        <v>11102.136010456961</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="6"/>
+        <v>10880.093290247822</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="6"/>
+        <v>10662.491424442866</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="6"/>
+        <v>10449.241595954009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15:M15" si="7">G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>17000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:M17" si="8">F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13510</v>
+      </c>
+      <c r="G18" s="1">
+        <v>14056</v>
+      </c>
+      <c r="H18" s="1">
+        <v>14591</v>
+      </c>
+      <c r="I18" s="1">
+        <v>15115</v>
+      </c>
+      <c r="J18" s="1">
+        <v>15629</v>
+      </c>
+      <c r="K18" s="1">
+        <v>16132</v>
+      </c>
+      <c r="L18" s="1">
+        <v>16626</v>
+      </c>
+      <c r="M18" s="1">
+        <v>17109</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <f>SUM(B12:B18)</f>
+        <v>17000</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SUM(C12:C18)</f>
+        <v>1171500</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:M19" si="9">SUM(D12:D18)</f>
+        <v>316170</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="9"/>
+        <v>1036846.6</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="9"/>
+        <v>49619.668000000005</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="9"/>
+        <v>49443.474640000008</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="9"/>
+        <v>49270.725147200006</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="9"/>
+        <v>49101.130644256002</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="9"/>
+        <v>48935.408031370884</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="9"/>
+        <v>48772.279870743463</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="9"/>
+        <v>48613.474273328597</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="9"/>
+        <v>48456.724787862026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>250000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>550000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>700000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ref="E24:M24" si="10">D24</f>
+        <v>12000</v>
+      </c>
+      <c r="F24" s="1">
+        <f>E24+(600*12*12)</f>
+        <v>98400</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="10"/>
+        <v>98400</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="10"/>
+        <v>98400</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="10"/>
+        <v>98400</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="10"/>
+        <v>98400</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="10"/>
+        <v>98400</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="10"/>
+        <v>98400</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="10"/>
+        <v>98400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <f>SUM(B21:B24)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SUM(C21:C24)</f>
+        <v>1100000</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:M25" si="11">SUM(D21:D24)</f>
+        <v>312000</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="11"/>
+        <v>1012000</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="11"/>
+        <v>98400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:M27" si="12">SUM(C25-C19)</f>
+        <v>-71500</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="12"/>
+        <v>-4170</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="12"/>
+        <v>-24846.599999999977</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="12"/>
+        <v>48780.331999999995</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="12"/>
+        <v>48956.525359999992</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="12"/>
+        <v>49129.274852799994</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="12"/>
+        <v>49298.869355743998</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="12"/>
+        <v>49464.591968629116</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="12"/>
+        <v>49627.720129256537</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="12"/>
+        <v>49786.525726671403</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="12"/>
+        <v>49943.275212137974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA21B1BE-84DF-2040-9349-0FE1531C10D0}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2511,7 +3621,12 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2519,47 +3634,47 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C5" s="1">
         <f>B5+1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:L5" si="0">C5+1</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2577,962 +3692,6 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <f>B21</f>
-        <v>250000</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7+C21</f>
-        <v>250000</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:L8" si="1">C7+D21</f>
-        <v>250000</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" ref="B8:B9" si="2">B22</f>
-        <v>300000</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8+C22</f>
-        <v>600000</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="2"/>
-        <v>550000</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9-B13+C23</f>
-        <v>539000</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:L9" si="3">C9-C13+D23</f>
-        <v>1228220</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="3"/>
-        <v>1203655.6000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="3"/>
-        <v>1179582.4880000001</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>1155990.8382400002</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>1132871.0214752001</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
-        <v>1110213.6010456961</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
-        <v>1088009.3290247822</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="3"/>
-        <v>1066249.1424442865</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="3"/>
-        <v>1044924.1595954008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <f>SUM(B7:B9)</f>
-        <v>1100000</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10:L10" si="4">SUM(C7:C9)</f>
-        <v>1389000</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="4"/>
-        <v>2378220</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="4"/>
-        <v>2353655.6</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="4"/>
-        <v>2329582.4879999999</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="4"/>
-        <v>2305990.8382400004</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>2282871.0214752001</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="4"/>
-        <v>2260213.6010456961</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="4"/>
-        <v>2238009.3290247824</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="4"/>
-        <v>2216249.1424442865</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="4"/>
-        <v>2194924.159595401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1100000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <f>0.02*B9</f>
-        <v>11000</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:L13" si="5">0.02*C9</f>
-        <v>10780</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="5"/>
-        <v>24564.400000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="5"/>
-        <v>24073.112000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="5"/>
-        <v>23591.649760000004</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="5"/>
-        <v>23119.816764800005</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="5"/>
-        <v>22657.420429504004</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="5"/>
-        <v>22204.272020913922</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="5"/>
-        <v>21760.186580495643</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="5"/>
-        <v>21324.982848885731</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="5"/>
-        <v>20898.483191908017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <f>0.01*B9</f>
-        <v>5500</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:L14" si="6">0.01*C9</f>
-        <v>5390</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>12282.2</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="6"/>
-        <v>12036.556</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="6"/>
-        <v>11795.824880000002</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="6"/>
-        <v>11559.908382400003</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="6"/>
-        <v>11328.710214752002</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="6"/>
-        <v>11102.136010456961</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="6"/>
-        <v>10880.093290247822</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="6"/>
-        <v>10662.491424442866</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="6"/>
-        <v>10449.241595954009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15:L15" si="7">F15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ref="F16:L17" si="8">E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>300000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>13510</v>
-      </c>
-      <c r="F18" s="1">
-        <v>14056</v>
-      </c>
-      <c r="G18" s="1">
-        <v>14591</v>
-      </c>
-      <c r="H18" s="1">
-        <v>15115</v>
-      </c>
-      <c r="I18" s="1">
-        <v>15629</v>
-      </c>
-      <c r="J18" s="1">
-        <v>16132</v>
-      </c>
-      <c r="K18" s="1">
-        <v>16626</v>
-      </c>
-      <c r="L18" s="1">
-        <v>17109</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <f>SUM(B12:B18)</f>
-        <v>1171500</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:L19" si="9">SUM(C12:C18)</f>
-        <v>316170</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="9"/>
-        <v>1036846.6</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="9"/>
-        <v>49619.668000000005</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="9"/>
-        <v>49443.474640000008</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="9"/>
-        <v>49270.725147200006</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="9"/>
-        <v>49101.130644256002</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="9"/>
-        <v>48935.408031370884</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="9"/>
-        <v>48772.279870743463</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="9"/>
-        <v>48613.474273328597</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="9"/>
-        <v>48456.724787862026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1">
-        <v>250000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1">
-        <v>300000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>300000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>300000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1">
-        <v>550000</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>700000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" ref="D24:L24" si="10">C24</f>
-        <v>12000</v>
-      </c>
-      <c r="E24" s="1">
-        <f>D24+(600*12*12)</f>
-        <v>98400</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="10"/>
-        <v>98400</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="10"/>
-        <v>98400</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="10"/>
-        <v>98400</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="10"/>
-        <v>98400</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="10"/>
-        <v>98400</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="10"/>
-        <v>98400</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="10"/>
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3">
-        <f>SUM(B21:B24)</f>
-        <v>1100000</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:L25" si="11">SUM(C21:C24)</f>
-        <v>312000</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="11"/>
-        <v>1012000</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="11"/>
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" ref="B27:L27" si="12">SUM(B25-B19)</f>
-        <v>-71500</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="12"/>
-        <v>-4170</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="12"/>
-        <v>-24846.599999999977</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="12"/>
-        <v>48780.331999999995</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="12"/>
-        <v>48956.525359999992</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="12"/>
-        <v>49129.274852799994</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="12"/>
-        <v>49298.869355743998</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="12"/>
-        <v>49464.591968629116</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="12"/>
-        <v>49627.720129256537</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="12"/>
-        <v>49786.525726671403</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="12"/>
-        <v>49943.275212137974</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA21B1BE-84DF-2040-9349-0FE1531C10D0}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="1">
-        <f>B5+1</f>
-        <v>2021</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:L5" si="0">C5+1</f>
-        <v>2022</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1">
@@ -3999,50 +4158,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF227E24-BF1D-C342-88C8-4AA1D5024252}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="13" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="14" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>2020</v>
       </c>
       <c r="C5" s="1">
-        <f>B5+1</f>
         <v>2021</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:L5" si="0">C5+1</f>
+        <f>C5+1</f>
         <v>2022</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E5:M5" si="0">D5+1</f>
         <v>2023</v>
       </c>
       <c r="F5" s="1">
@@ -4073,9 +4232,12 @@
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4086,74 +4248,71 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <f>B21</f>
+      <c r="C7" s="1">
+        <f>C21</f>
         <v>18400</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:L7" si="1">B7+C21</f>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:M7" si="1">C7+D21</f>
         <v>41400</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>68280</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1">
-        <f>B22</f>
-        <v>0</v>
-      </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C9" si="2">B8+C22</f>
+        <f>C22</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:D9" si="2">C8+D22</f>
         <v>200000</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:L8" si="3">C8+D22</f>
-        <v>500000</v>
-      </c>
       <c r="E8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E8:M8" si="3">D8+E22</f>
         <v>500000</v>
       </c>
       <c r="F8" s="1">
@@ -4184,107 +4343,110 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1">
-        <f>B23</f>
-        <v>0</v>
-      </c>
       <c r="C9" s="1">
+        <f>C23</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:L9" si="4">C9-C12+D23</f>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:M9" si="4">D9-D12+E23</f>
         <v>496000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="4"/>
         <v>486080</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="4"/>
         <v>476358.40000000002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="4"/>
         <v>466831.23200000002</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>457494.60736000002</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="4"/>
         <v>448344.71521280002</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
         <v>439377.820908544</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="4"/>
         <v>430590.26449037314</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="4"/>
         <v>421978.4592005657</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3">
-        <f>SUM(B7:B9)</f>
+      <c r="C10" s="3">
+        <f>SUM(C7:C9)</f>
         <v>18400</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10:L10" si="5">SUM(C7:C9)</f>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:M10" si="5">SUM(D7:D9)</f>
         <v>441400</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="5"/>
         <v>1064280</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <f t="shared" si="5"/>
         <v>1054360</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="5"/>
         <v>1044638.4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="5"/>
         <v>1035111.2320000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="5"/>
         <v>1025774.60736</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="5"/>
         <v>1016624.7152128001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <f t="shared" si="5"/>
         <v>1007657.820908544</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="5"/>
         <v>998870.2644903732</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="5"/>
         <v>990258.4592005657</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4295,123 +4457,120 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" ref="B12:L12" si="6">0.02*B9</f>
-        <v>0</v>
-      </c>
       <c r="C12" s="1">
+        <f t="shared" ref="C12:M12" si="6">0.02*C9</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="6"/>
         <v>9920</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="6"/>
         <v>9721.6</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="6"/>
         <v>9527.1680000000015</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="6"/>
         <v>9336.62464</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="6"/>
         <v>9149.8921472000002</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="6"/>
         <v>8966.8943042560004</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="6"/>
         <v>8787.5564181708796</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="6"/>
         <v>8611.8052898074639</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="6"/>
         <v>8439.5691840113141</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:L13" si="7">0.01*B9</f>
-        <v>0</v>
-      </c>
       <c r="C13" s="1">
+        <f t="shared" ref="C13:M13" si="7">0.01*C9</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="7"/>
         <v>4960</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="7"/>
         <v>4860.8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="7"/>
         <v>4763.5840000000007</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="7"/>
         <v>4668.31232</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="7"/>
         <v>4574.9460736000001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="7"/>
         <v>4483.4471521280002</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="7"/>
         <v>4393.7782090854398</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="7"/>
         <v>4305.9026449037319</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="7"/>
         <v>4219.784592005657</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <f>6*1400</f>
         <v>8400</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <f>12*1400</f>
         <v>16800</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:L14" si="8">12*1400</f>
-        <v>16800</v>
-      </c>
       <c r="E14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E14:M14" si="8">12*1400</f>
         <v>16800</v>
       </c>
       <c r="F14" s="1">
@@ -4442,33 +4601,33 @@
         <f t="shared" si="8"/>
         <v>16800</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="1">
+        <f t="shared" si="8"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
-        <v>5000</v>
-      </c>
       <c r="C15" s="1">
         <v>5000</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>E15</f>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:L15" si="9">F15</f>
+        <f>F15</f>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H15:M15" si="9">G15</f>
         <v>0</v>
       </c>
       <c r="I15" s="1">
@@ -4487,33 +4646,33 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N15" t="s">
+      <c r="M15" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>5000</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:L17" si="10">E16</f>
+        <f>E16</f>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G16:M17" si="10">F16</f>
         <v>0</v>
       </c>
       <c r="H16" s="1">
@@ -4536,28 +4695,28 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N16" t="s">
+      <c r="M16" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
       <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <v>400000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>600000</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
       <c r="F17" s="1">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G17" s="1">
@@ -4584,14 +4743,15 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
@@ -4622,61 +4782,64 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" t="s">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
-        <f>SUM(B12:B18)</f>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <f>SUM(C12:C18)</f>
         <v>18400</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:L19" si="11">SUM(C12:C18)</f>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:M19" si="11">SUM(D12:D18)</f>
         <v>427800</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <f t="shared" si="11"/>
         <v>631680</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <f t="shared" si="11"/>
         <v>31382.400000000001</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="11"/>
         <v>31090.752</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="11"/>
         <v>30804.936959999999</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="11"/>
         <v>30524.8382208</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="11"/>
         <v>30250.341456384002</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <f t="shared" si="11"/>
         <v>29981.334627256321</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="11"/>
         <v>29717.707934711194</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="11"/>
         <v>29459.353776016971</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4687,24 +4850,22 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>18400</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>23000</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <f>8318+3682+14880</f>
         <v>26880</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
@@ -4726,23 +4887,23 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
       <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
         <v>200000</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>300000</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -4764,23 +4925,23 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
       <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
         <v>200000</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>300000</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
@@ -4802,32 +4963,31 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
       <c r="C24" s="1">
-        <f>12*400</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <f>12*400</f>
         <v>4800</v>
       </c>
       <c r="E24" s="1">
+        <f>12*400</f>
+        <v>4800</v>
+      </c>
+      <c r="F24" s="1">
         <f>12*400+12*500*10</f>
         <v>64800</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" ref="F24:L24" si="12">E24</f>
-        <v>64800</v>
-      </c>
       <c r="G24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G24:M24" si="12">F24</f>
         <v>64800</v>
       </c>
       <c r="H24" s="1">
@@ -4850,26 +5010,27 @@
         <f t="shared" si="12"/>
         <v>64800</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="1">
+        <f t="shared" si="12"/>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" ref="B25:L25" si="13">SUM(B21:B24)</f>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:M25" si="13">SUM(C21:C24)</f>
         <v>18400</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <f t="shared" si="13"/>
         <v>427800</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <f t="shared" si="13"/>
         <v>631680</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="13"/>
-        <v>64800</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="13"/>
@@ -4899,9 +5060,12 @@
         <f t="shared" si="13"/>
         <v>64800</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+      <c r="M25" s="3">
+        <f t="shared" si="13"/>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4912,17 +5076,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1">
-        <f t="shared" ref="B27:L27" si="14">SUM(B25-B19)</f>
-        <v>0</v>
-      </c>
       <c r="C27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C27:M27" si="14">SUM(C25-C19)</f>
         <v>0</v>
       </c>
       <c r="D27" s="1">
@@ -4931,33 +5092,37 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="14"/>
-        <v>33417.599999999999</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="14"/>
-        <v>33709.248</v>
+        <v>33417.599999999999</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="14"/>
-        <v>33995.063040000001</v>
+        <v>33709.248</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="14"/>
-        <v>34275.161779200003</v>
+        <v>33995.063040000001</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="14"/>
-        <v>34549.658543615995</v>
+        <v>34275.161779200003</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="14"/>
-        <v>34818.665372743679</v>
+        <v>34549.658543615995</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="14"/>
+        <v>34818.665372743679</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="14"/>
         <v>35082.292065288806</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <f t="shared" si="14"/>
         <v>35340.646223983029</v>
       </c>
@@ -4965,4 +5130,526 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23700304-2524-FC45-BB4A-B92E049D50E7}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>1500000</v>
+      </c>
+      <c r="J2">
+        <v>1100000</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4">
+        <f>B5*100/B$15</f>
+        <v>10.688405797101449</v>
+      </c>
+      <c r="D5" s="1">
+        <f>(C5/100)*D$2</f>
+        <v>160326.08695652173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4">
+        <f>I5</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G5" s="1">
+        <f>(F5/100)*$D$14</f>
+        <v>67028.985507246369</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5*100/H$15</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J5" s="1">
+        <f>(I5/100)*J$2</f>
+        <v>122222.22222222222</v>
+      </c>
+      <c r="K5" s="1">
+        <f>D5+G5+J5</f>
+        <v>349577.29468599032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C14" si="0">B6*100/B$15</f>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D14" si="1">(C6/100)*D$2</f>
+        <v>195652.17391304349</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F11" si="2">I6</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G11" si="3">(F6/100)*$D$14</f>
+        <v>134057.97101449274</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I14" si="4">H6*100/H$15</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J14" si="5">(I6/100)*J$2</f>
+        <v>244444.44444444444</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K11" si="6">D6+G6+J6</f>
+        <v>574154.58937198063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2463768115942031</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>108695.65217391304</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>67028.985507246369</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
+        <v>122222.22222222222</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="6"/>
+        <v>297946.85990338167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>13.22463768115942</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>198369.5652173913</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>134057.97101449274</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="4"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
+        <v>244444.44444444444</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="6"/>
+        <v>576871.98067632853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>81521.739130434784</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>67028.985507246369</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
+        <v>122222.22222222222</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="6"/>
+        <v>270772.9468599034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>67028.985507246369</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
+        <v>122222.22222222222</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="6"/>
+        <v>189251.20772946859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>81521.739130434784</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>67028.985507246369</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="5"/>
+        <v>122222.22222222222</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="6"/>
+        <v>270772.9468599034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3550724637681157</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>35326.086956521736</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K6:K14" si="7">D12+J12</f>
+        <v>35326.086956521736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3550724637681157</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>35326.086956521736</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="7"/>
+        <v>35326.086956521736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <f>84 + 69 + 53 + 16</f>
+        <v>222</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>40.217391304347828</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>603260.86956521741</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f>SUM(B5:B14)</f>
+        <v>552</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(C5:C14)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(D5:D14)</f>
+        <v>1500000</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <f>SUM(G5:G14)</f>
+        <v>603260.86956521729</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H5:H14)</f>
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I5:I14)</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="1">
+        <f>SUM(J5:J14)</f>
+        <v>1100000</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUM(K5:K14)</f>
+        <v>2600000.0000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D446164E-93E3-4645-A1C5-B0F4347334E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE7246-32A3-1446-BEDF-059C0D4FC2A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="5" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Ohne Haus" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="3 Hausbau voll" sheetId="3" r:id="rId3"/>
     <sheet name="4 Pacht ohne Haus" sheetId="6" r:id="rId4"/>
     <sheet name="5 Pacht mit Haus" sheetId="7" r:id="rId5"/>
-    <sheet name="Kostenverteilung" sheetId="8" r:id="rId6"/>
+    <sheet name="6 Grundstueckkauf mit Haus 1.2M" sheetId="9" r:id="rId6"/>
+    <sheet name="Kostenverteilung" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -140,8 +141,69 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{AF192674-524F-2F46-A443-A235C887575B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Landschaftsplanung und Bauvoranfrage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{01C4C01A-225F-8D46-BB05-C1125719F116}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Barbara, Michael, Moc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{3BD34E97-29A5-1E43-A4AF-A167D044F04D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Barbara und Michael insgesamt 600 pro Monat</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
   <si>
     <t>Zins</t>
   </si>
@@ -322,6 +384,33 @@
   <si>
     <t>Haus+Gem+Gr</t>
   </si>
+  <si>
+    <t>Guthaben</t>
+  </si>
+  <si>
+    <t>Rueckstellungsfond</t>
+  </si>
+  <si>
+    <t>Guthaben vom Vorjahr</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Tilgung Privatdarlehen</t>
+  </si>
+  <si>
+    <t>Unterhalt % der Miete</t>
+  </si>
+  <si>
+    <t>Miete pro qm</t>
+  </si>
+  <si>
+    <t>6 Grundstueckskauf mit Hausbau fuer 1.2 Millionen</t>
+  </si>
+  <si>
+    <t>Karin Rapp</t>
+  </si>
 </sst>
 </file>
 
@@ -404,12 +493,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5133,11 +5222,1165 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCFB472-9F6E-9148-B4C4-A2E97EB061EF}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:L6" si="0">B6+1</f>
+        <v>2021</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B23</f>
+        <v>276500</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:L8" si="1">B8+C23</f>
+        <v>285974</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>313125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B24</f>
+        <v>300000</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9+C24</f>
+        <v>600000</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9+D24</f>
+        <v>900000</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9+E24</f>
+        <v>900000</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:L9" si="2">E9+F24-E16</f>
+        <v>894000</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>888000</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>882000</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>876000</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>870000</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>864000</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>858000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B25</f>
+        <v>550000</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:L10" si="3">B10-B14+C25</f>
+        <v>539000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>1128220</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>1105655.6000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>1083542.4880000001</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>1061871.6382400002</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>1040634.2054752002</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>1019821.5213656962</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>999425.09093838232</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>979436.58911961468</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>959847.85733722243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" ref="B11:L11" si="4">SUM(B8:B10)</f>
+        <v>1126500</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="4"/>
+        <v>1424974</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>2341345</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="4"/>
+        <v>2318780.6</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>2290667.4879999999</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="4"/>
+        <v>2262996.6382400002</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="4"/>
+        <v>2235759.2054752</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="4"/>
+        <v>2208946.5213656961</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="4"/>
+        <v>2182550.0909383823</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="4"/>
+        <v>2156561.5891196146</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="4"/>
+        <v>2130972.8573372224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:L14" si="5">0.02*B10</f>
+        <v>11000</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="5"/>
+        <v>10780</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="5"/>
+        <v>22564.400000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="5"/>
+        <v>22113.112000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="5"/>
+        <v>21670.849760000005</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="5"/>
+        <v>21237.432764800003</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="5"/>
+        <v>20812.684109504004</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="5"/>
+        <v>20396.430427313924</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>19988.501818767647</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="5"/>
+        <v>19588.731782392293</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="5"/>
+        <v>19196.957146744448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:L15" si="6">0.01*B10</f>
+        <v>5500</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="6"/>
+        <v>5390</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>11282.2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="6"/>
+        <v>11056.556</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="6"/>
+        <v>10835.424880000002</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="6"/>
+        <v>10618.716382400002</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="6"/>
+        <v>10406.342054752002</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="6"/>
+        <v>10198.215213656962</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="6"/>
+        <v>9994.2509093838235</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="6"/>
+        <v>9794.3658911961465</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="6"/>
+        <v>9598.4785733722238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:L19" si="7">E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>900000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B4*0.01*B26</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <f>B4*0.01*C26</f>
+        <v>504.00000000000006</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:L20" si="8">$B4*0.01*D26</f>
+        <v>504.00000000000006</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="8"/>
+        <v>5040.0000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" ref="B21:L21" si="9">SUM(B13:B20)</f>
+        <v>1126500</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="9"/>
+        <v>316674</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="9"/>
+        <v>934350.6</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="9"/>
+        <v>44209.668000000005</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="9"/>
+        <v>43546.274640000003</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="9"/>
+        <v>42896.149147200005</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="9"/>
+        <v>42259.026164256007</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="9"/>
+        <v>41634.645640970884</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="9"/>
+        <v>41022.75272815147</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="9"/>
+        <v>40423.09767358844</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="9"/>
+        <v>39835.435720116671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>276500</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9474</v>
+      </c>
+      <c r="D23" s="1">
+        <f>35617-8466</f>
+        <v>27151</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>550000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <f>12*600</f>
+        <v>7200</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C26</f>
+        <v>7200</v>
+      </c>
+      <c r="E26" s="1">
+        <f>(600*B3*12)</f>
+        <v>72000</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ref="F26:L26" si="10">E26</f>
+        <v>72000</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="10"/>
+        <v>72000</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="10"/>
+        <v>72000</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="10"/>
+        <v>72000</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="10"/>
+        <v>72000</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="10"/>
+        <v>72000</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="10"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" ref="B27:L27" si="11">SUM(B23:B26)</f>
+        <v>1126500</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="11"/>
+        <v>316674</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="11"/>
+        <v>934351</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="11"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" ref="B29:L29" si="12">B27-B21</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="12"/>
+        <v>0.40000000002328306</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="12"/>
+        <v>27790.331999999995</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="12"/>
+        <v>28453.725359999997</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="12"/>
+        <v>29103.850852799995</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="12"/>
+        <v>29740.973835743993</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="12"/>
+        <v>30365.354359029116</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="12"/>
+        <v>30977.24727184853</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="12"/>
+        <v>31576.90232641156</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="12"/>
+        <v>32164.564279883329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:L31" si="13">C33</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="13"/>
+        <v>0.40000000002328306</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="13"/>
+        <v>17790.732000000018</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="13"/>
+        <v>46244.457360000015</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="13"/>
+        <v>75348.30821280001</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="13"/>
+        <v>105089.282048544</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="13"/>
+        <v>135454.63640757313</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="13"/>
+        <v>166431.88367942165</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="13"/>
+        <v>198008.78600583322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>10000</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B27-B21</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <f>SUM(C27-C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33:L33" si="14">D31-D32+D27-D21</f>
+        <v>0.40000000002328306</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="14"/>
+        <v>17790.732000000018</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="14"/>
+        <v>46244.457360000015</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="14"/>
+        <v>75348.30821280001</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="14"/>
+        <v>105089.282048544</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="14"/>
+        <v>135454.63640757313</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="14"/>
+        <v>166431.88367942165</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="14"/>
+        <v>198008.78600583322</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="14"/>
+        <v>230173.35028571653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23700304-2524-FC45-BB4A-B92E049D50E7}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5148,7 +6391,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5162,7 +6405,7 @@
       <c r="J2">
         <v>1100000</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5170,22 +6413,22 @@
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5220,41 +6463,41 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
-        <f>B5*100/B$15</f>
-        <v>10.688405797101449</v>
+        <f>B5*100/B$16</f>
+        <v>9.9796334012219958</v>
       </c>
       <c r="D5" s="1">
         <f>(C5/100)*D$2</f>
-        <v>160326.08695652173</v>
+        <v>149694.50101832993</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="4">
         <f>I5</f>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
-        <f>(F5/100)*$D$14</f>
-        <v>67028.985507246369</v>
+        <f>(F5/100)*$D$15</f>
+        <v>30549.898167006108</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <f>H5*100/H$15</f>
-        <v>11.111111111111111</v>
+        <f>H5*100/H$16</f>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <f>(I5/100)*J$2</f>
-        <v>122222.22222222222</v>
+        <v>110000</v>
       </c>
       <c r="K5" s="1">
         <f>D5+G5+J5</f>
-        <v>349577.29468599032</v>
+        <v>290244.39918533608</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5262,41 +6505,41 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C14" si="0">B6*100/B$15</f>
-        <v>13.043478260869565</v>
+        <f t="shared" ref="C6:C15" si="0">B6*100/B$16</f>
+        <v>15.071283095723015</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D14" si="1">(C6/100)*D$2</f>
-        <v>195652.17391304349</v>
+        <f t="shared" ref="D6:D15" si="1">(C6/100)*D$2</f>
+        <v>226069.24643584521</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F11" si="2">I6</f>
-        <v>22.222222222222221</v>
+        <f t="shared" ref="F6:F12" si="2">I6</f>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G11" si="3">(F6/100)*$D$14</f>
-        <v>134057.97101449274</v>
+        <f t="shared" ref="G6:G12" si="3">(F6/100)*$D$15</f>
+        <v>61099.796334012215</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ref="I6:I14" si="4">H6*100/H$15</f>
-        <v>22.222222222222221</v>
+        <f t="shared" ref="I6:I15" si="4">H6*100/H$16</f>
+        <v>20</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J14" si="5">(I6/100)*J$2</f>
-        <v>244444.44444444444</v>
+        <f t="shared" ref="J6:J15" si="5">(I6/100)*J$2</f>
+        <v>220000</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K11" si="6">D6+G6+J6</f>
-        <v>574154.58937198063</v>
+        <f t="shared" ref="K6:K12" si="6">D6+G6+J6</f>
+        <v>507169.04276985745</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5304,41 +6547,41 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>7.2463768115942031</v>
+        <v>10.386965376782078</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>108695.65217391304</v>
+        <v>155804.48065173117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>67028.985507246369</v>
+        <v>30549.898167006108</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="5"/>
-        <v>122222.22222222222</v>
+        <v>110000</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="6"/>
-        <v>297946.85990338167</v>
+        <v>296354.37881873728</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5346,41 +6589,41 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>13.22463768115942</v>
+        <v>15.071283095723015</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>198369.5652173913</v>
+        <v>226069.24643584521</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>22.222222222222221</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>134057.97101449274</v>
+        <v>61099.796334012215</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
-        <v>22.222222222222221</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="5"/>
-        <v>244444.44444444444</v>
+        <v>220000</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="6"/>
-        <v>576871.98067632853</v>
+        <v>507169.04276985745</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5388,175 +6631,183 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>5.4347826086956523</v>
+        <v>6.5173116089613039</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>81521.739130434784</v>
+        <v>97759.674134419562</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>67028.985507246369</v>
+        <v>30549.898167006108</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="5"/>
-        <v>122222.22222222222</v>
+        <v>110000</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="6"/>
-        <v>270772.9468599034</v>
+        <v>238309.57230142568</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.201629327902241</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>168024.43991853361</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>67028.985507246369</v>
+        <v>30549.898167006108</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="5"/>
-        <v>122222.22222222222</v>
+        <v>110000</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="6"/>
-        <v>189251.20772946859</v>
+        <v>308574.33808553976</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>5.4347826086956523</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>81521.739130434784</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>67028.985507246369</v>
+        <v>30549.898167006108</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="5"/>
-        <v>122222.22222222222</v>
+        <v>110000</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="6"/>
-        <v>270772.9468599034</v>
+        <v>140549.89816700612</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>2.3550724637681157</v>
+        <v>6.1099796334012222</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>35326.086956521736</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>91649.694501018326</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>30549.898167006108</v>
+      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K6:K14" si="7">D12+J12</f>
-        <v>35326.086956521736</v>
+        <f t="shared" si="6"/>
+        <v>232199.59266802442</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>2.3550724637681157</v>
+        <v>2.6476578411405294</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>35326.086956521736</v>
+        <v>39714.867617107935</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5573,25 +6824,24 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="7"/>
-        <v>35326.086956521736</v>
+        <f t="shared" ref="K13:K14" si="7">D13+J13</f>
+        <v>39714.867617107935</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <f>84 + 69 + 53 + 16</f>
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>40.217391304347828</v>
+        <v>2.6476578411405294</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>603260.86956521741</v>
+        <v>39714.867617107935</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5607,42 +6857,77 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <f t="shared" si="7"/>
+        <v>39714.867617107935</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
       <c r="B15">
-        <f>SUM(B5:B14)</f>
-        <v>552</v>
+        <f>37+37+26</f>
+        <v>100</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM(C5:C14)</f>
-        <v>100.00000000000001</v>
+        <f t="shared" si="0"/>
+        <v>20.366598778004072</v>
       </c>
       <c r="D15" s="1">
-        <f>SUM(D5:D14)</f>
-        <v>1500000</v>
+        <f t="shared" si="1"/>
+        <v>305498.98167006107</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <f>SUM(G5:G14)</f>
-        <v>603260.86956521729</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15">
-        <f>SUM(H5:H14)</f>
-        <v>9</v>
-      </c>
-      <c r="I15" s="1">
-        <f>SUM(I5:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>SUM(B5:B15)</f>
+        <v>491</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM(C5:C15)</f>
         <v>100</v>
       </c>
-      <c r="J15" s="1">
-        <f>SUM(J5:J14)</f>
+      <c r="D16" s="1">
+        <f>SUM(D5:D15)</f>
+        <v>1500000</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <f>SUM(G5:G15)</f>
+        <v>305498.98167006107</v>
+      </c>
+      <c r="H16">
+        <f>SUM(H5:H15)</f>
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <f>SUM(I5:I15)</f>
+        <v>100</v>
+      </c>
+      <c r="J16" s="1">
+        <f>SUM(J5:J15)</f>
         <v>1100000</v>
       </c>
-      <c r="K15" s="1">
-        <f>SUM(K5:K14)</f>
-        <v>2600000.0000000009</v>
+      <c r="K16" s="1">
+        <f>SUM(K5:K15)</f>
+        <v>2600000</v>
       </c>
     </row>
   </sheetData>

--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE7246-32A3-1446-BEDF-059C0D4FC2A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A4555F-A1E0-574C-A01B-709AACB39F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
   <si>
     <t>Zins</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>Karin Rapp</t>
+  </si>
+  <si>
+    <t>Kostenverteilung auf die einzelnen Genossenschaftsmitglieder</t>
   </si>
 </sst>
 </file>
@@ -5225,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCFB472-9F6E-9148-B4C4-A2E97EB061EF}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6379,9 +6382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23700304-2524-FC45-BB4A-B92E049D50E7}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6391,6 +6392,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K1" s="6" t="s">
         <v>54</v>
       </c>

--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A4555F-A1E0-574C-A01B-709AACB39F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770930AD-0FBE-B04F-9A87-4374544B5591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
   <si>
     <t>Zins</t>
   </si>
@@ -331,18 +331,12 @@
     <t>Nathalie Fickenscher</t>
   </si>
   <si>
-    <t>Araceli + Joerg</t>
-  </si>
-  <si>
     <t>Gemeinschaft</t>
   </si>
   <si>
     <t>N.N. OG</t>
   </si>
   <si>
-    <t>N.N. DG</t>
-  </si>
-  <si>
     <t>qm</t>
   </si>
   <si>
@@ -364,24 +358,12 @@
     <t>Grund</t>
   </si>
   <si>
-    <t>Anzahl P.</t>
-  </si>
-  <si>
     <t>Summe</t>
   </si>
   <si>
     <t>ohne Kredit</t>
   </si>
   <si>
-    <t>Gemeinschaftsraeume</t>
-  </si>
-  <si>
-    <t>Faktor</t>
-  </si>
-  <si>
-    <t>anz. Pers.</t>
-  </si>
-  <si>
     <t>Haus+Gem+Gr</t>
   </si>
   <si>
@@ -413,6 +395,24 @@
   </si>
   <si>
     <t>Kostenverteilung auf die einzelnen Genossenschaftsmitglieder</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Zahl</t>
+  </si>
+  <si>
+    <t>Prozent</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Gemeinschaft + N.N.</t>
+  </si>
+  <si>
+    <t>Araceli</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,6 +502,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5244,12 +5246,12 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5257,7 +5259,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -5671,7 +5673,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -6187,7 +6189,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" ref="B29:L29" si="12">B27-B21</f>
@@ -6250,7 +6252,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6293,7 +6295,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6325,7 +6327,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
         <f>B27-B21</f>
@@ -6380,565 +6382,493 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23700304-2524-FC45-BB4A-B92E049D50E7}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="J1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="9">
         <v>1500000</v>
       </c>
-      <c r="J2">
-        <v>1100000</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1100000</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>49</v>
       </c>
-      <c r="C5" s="4">
-        <f>B5*100/B$16</f>
-        <v>9.9796334012219958</v>
-      </c>
-      <c r="D5" s="1">
-        <f>(C5/100)*D$2</f>
-        <v>149694.50101832993</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
+      <c r="D5" s="4">
+        <f>C5*100/C$15</f>
+        <v>10.144927536231885</v>
+      </c>
+      <c r="E5" s="1">
+        <f>(D5/100)*E$3</f>
+        <v>152173.91304347827</v>
       </c>
       <c r="F5" s="4">
-        <f>I5</f>
-        <v>10</v>
+        <f>H5</f>
+        <v>12.5</v>
       </c>
       <c r="G5" s="1">
-        <f>(F5/100)*$D$15</f>
-        <v>30549.898167006108</v>
-      </c>
-      <c r="H5">
+        <f>(F5/100)*($E$14+$E$13)</f>
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H5" s="4">
+        <f>B5*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>(H5/100)*I$3</f>
+        <v>137500</v>
+      </c>
+      <c r="J5" s="1">
+        <f>E5+G5+I5</f>
+        <v>335481.36645962734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
-        <f>H5*100/H$16</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <f>(I5/100)*J$2</f>
-        <v>110000</v>
-      </c>
-      <c r="K5" s="1">
-        <f>D5+G5+J5</f>
-        <v>290244.39918533608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
+      <c r="C6">
         <v>74</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:C15" si="0">B6*100/B$16</f>
-        <v>15.071283095723015</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:D15" si="1">(C6/100)*D$2</f>
-        <v>226069.24643584521</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
+      <c r="D6" s="4">
+        <f>C6*100/C$15</f>
+        <v>15.320910973084887</v>
+      </c>
+      <c r="E6" s="1">
+        <f>(D6/100)*E$3</f>
+        <v>229813.6645962733</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F12" si="2">I6</f>
-        <v>20</v>
+        <f t="shared" ref="F6:F12" si="0">H6</f>
+        <v>12.5</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G12" si="3">(F6/100)*$D$15</f>
-        <v>61099.796334012215</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" ref="I6:I15" si="4">H6*100/H$16</f>
-        <v>20</v>
+        <f t="shared" ref="G6:G12" si="1">(F6/100)*($E$14+$E$13)</f>
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H6" s="4">
+        <f>B6*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I6" s="1">
+        <f>(H6/100)*I$3</f>
+        <v>137500</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ref="J6:J15" si="5">(I6/100)*J$2</f>
-        <v>220000</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:K12" si="6">D6+G6+J6</f>
-        <v>507169.04276985745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <f>E6+G6+I6</f>
+        <v>413121.11801242235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>51</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
+        <f>C7*100/C$15</f>
+        <v>10.559006211180124</v>
+      </c>
+      <c r="E7" s="1">
+        <f>(D7/100)*E$3</f>
+        <v>158385.09316770188</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>10.386965376782078</v>
-      </c>
-      <c r="D7" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>155804.48065173117</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>30549.898167006108</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H7" s="4">
+        <f>B7*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(H7/100)*I$3</f>
+        <v>137500</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="5"/>
-        <v>110000</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="6"/>
-        <v>296354.37881873728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <f>E7+G7+I7</f>
+        <v>341692.54658385098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>74</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
+        <f>C8*100/C$15</f>
+        <v>15.320910973084887</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(D8/100)*E$3</f>
+        <v>229813.6645962733</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>15.071283095723015</v>
-      </c>
-      <c r="D8" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>226069.24643584521</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>61099.796334012215</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H8" s="4">
+        <f>B8*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I8" s="1">
+        <f>(H8/100)*I$3</f>
+        <v>137500</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>220000</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="6"/>
-        <v>507169.04276985745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <f>E8+G8+I8</f>
+        <v>413121.11801242235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>32</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
+        <f>C9*100/C$15</f>
+        <v>6.625258799171843</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(D9/100)*E$3</f>
+        <v>99378.881987577653</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>6.5173116089613039</v>
-      </c>
-      <c r="D9" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>97759.674134419562</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>30549.898167006108</v>
-      </c>
-      <c r="H9">
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H9" s="4">
+        <f>B9*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I9" s="1">
+        <f>(H9/100)*I$3</f>
+        <v>137500</v>
+      </c>
+      <c r="J9" s="1">
+        <f>E9+G9+I9</f>
+        <v>282686.33540372673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="5"/>
-        <v>110000</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="6"/>
-        <v>238309.57230142568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10">
+      <c r="C10">
         <v>55</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
+        <f>C10*100/C$15</f>
+        <v>11.387163561076605</v>
+      </c>
+      <c r="E10" s="1">
+        <f>(D10/100)*E$3</f>
+        <v>170807.45341614907</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>11.201629327902241</v>
-      </c>
-      <c r="D10" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>168024.43991853361</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="3"/>
-        <v>30549.898167006108</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H10" s="4">
+        <f>B10*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I10" s="1">
+        <f>(H10/100)*I$3</f>
+        <v>137500</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
-        <v>110000</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="6"/>
-        <v>308574.33808553976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <f>E10+G10+I10</f>
+        <v>354114.90683229815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11*100/C$15</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f>(D11/100)*E$3</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="3"/>
-        <v>30549.898167006108</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H11" s="4">
+        <f>B11*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f>(H11/100)*I$3</f>
+        <v>137500</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="5"/>
-        <v>110000</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="6"/>
-        <v>140549.89816700612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <f>E11+G11+I11</f>
+        <v>183307.45341614907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>30</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
+        <f>C12*100/C$15</f>
+        <v>6.2111801242236027</v>
+      </c>
+      <c r="E12" s="1">
+        <f>(D12/100)*E$3</f>
+        <v>93167.701863354043</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>6.1099796334012222</v>
-      </c>
-      <c r="D12" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>91649.694501018326</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="3"/>
-        <v>30549.898167006108</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <v>45807.453416149066</v>
+      </c>
+      <c r="H12" s="4">
+        <f>B12*100/B$15</f>
+        <v>12.5</v>
+      </c>
+      <c r="I12" s="1">
+        <f>(H12/100)*I$3</f>
+        <v>137500</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="5"/>
-        <v>110000</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="6"/>
-        <v>232199.59266802442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <f>E12+G12+I12</f>
+        <v>276475.15527950309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6476578411405294</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>39714.867617107935</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13*100/C$15</f>
+        <v>3.7267080745341614</v>
+      </c>
+      <c r="E13" s="1">
+        <f>(D13/100)*E$3</f>
+        <v>55900.621118012423</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13:K14" si="7">D13+J13</f>
-        <v>39714.867617107935</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6476578411405294</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>39714.867617107935</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>37+37+26</f>
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14*100/C$15</f>
+        <v>20.703933747412009</v>
+      </c>
+      <c r="E14" s="1">
+        <f>(D14/100)*E$3</f>
+        <v>310559.00621118012</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="7"/>
-        <v>39714.867617107935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15">
-        <f>37+37+26</f>
+        <f>SUM(B5:B14)</f>
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C5:C14)</f>
+        <v>483</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM(D5:D14)</f>
         <v>100</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>20.366598778004072</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>305498.98167006107</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <f>SUM(E5:E14)</f>
+        <v>1500000</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="G15" s="1">
+        <f>SUM(G5:G14)</f>
+        <v>366459.62732919253</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H5:H14)</f>
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I5:I14)</f>
+        <v>1100000</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <f>SUM(B5:B15)</f>
-        <v>491</v>
-      </c>
-      <c r="C16" s="4">
-        <f>SUM(C5:C15)</f>
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <f>SUM(D5:D15)</f>
-        <v>1500000</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <f>SUM(G5:G15)</f>
-        <v>305498.98167006107</v>
-      </c>
-      <c r="H16">
-        <f>SUM(H5:H15)</f>
-        <v>10</v>
-      </c>
-      <c r="I16" s="1">
-        <f>SUM(I5:I15)</f>
-        <v>100</v>
-      </c>
-      <c r="J16" s="1">
-        <f>SUM(J5:J15)</f>
-        <v>1100000</v>
-      </c>
-      <c r="K16" s="1">
-        <f>SUM(K5:K15)</f>
+        <f>SUM(J5:J14)</f>
         <v>2600000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:J3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770930AD-0FBE-B04F-9A87-4374544B5591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87827ADE-C8D1-E643-B76D-A01C8ACA30E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>

--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87827ADE-C8D1-E643-B76D-A01C8ACA30E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A4718-835D-EE4F-BC30-6C744C7471EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
   <si>
     <t>Zins</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Anteil</t>
   </si>
   <si>
-    <t>Kostenanteil</t>
-  </si>
-  <si>
     <t>Gesamtkosten</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>ohne Kredit</t>
-  </si>
-  <si>
     <t>Haus+Gem+Gr</t>
   </si>
   <si>
@@ -406,13 +400,19 @@
     <t>Prozent</t>
   </si>
   <si>
-    <t>Euro</t>
-  </si>
-  <si>
     <t>Gemeinschaft + N.N.</t>
   </si>
   <si>
     <t>Araceli</t>
+  </si>
+  <si>
+    <t>T. Euro</t>
+  </si>
+  <si>
+    <t>Grobe Uebersicht in Tausend Euro ohne jegliche Verschuldung oder Kredit</t>
+  </si>
+  <si>
+    <t>Ziel: 50% Fremdfinanzierung</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5246,12 +5247,12 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5259,7 +5260,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -5673,7 +5674,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -6189,7 +6190,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" ref="B29:L29" si="12">B27-B21</f>
@@ -6252,7 +6253,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6295,7 +6296,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6327,7 +6328,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
         <f>B27-B21</f>
@@ -6382,216 +6383,152 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23700304-2524-FC45-BB4A-B92E049D50E7}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="J1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="J3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1100000</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4">
-        <f>C5*100/C$15</f>
-        <v>10.144927536231885</v>
-      </c>
-      <c r="E5" s="1">
-        <f>(D5/100)*E$3</f>
-        <v>152173.91304347827</v>
-      </c>
-      <c r="F5" s="4">
-        <f>H5</f>
-        <v>12.5</v>
-      </c>
-      <c r="G5" s="1">
-        <f>(F5/100)*($E$14+$E$13)</f>
-        <v>45807.453416149066</v>
-      </c>
-      <c r="H5" s="4">
-        <f>B5*100/B$15</f>
-        <v>12.5</v>
-      </c>
-      <c r="I5" s="1">
-        <f>(H5/100)*I$3</f>
-        <v>137500</v>
-      </c>
-      <c r="J5" s="1">
-        <f>E5+G5+I5</f>
-        <v>335481.36645962734</v>
-      </c>
+      <c r="I5" s="10">
+        <v>1100</v>
+      </c>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>74</v>
-      </c>
-      <c r="D6" s="4">
-        <f>C6*100/C$15</f>
-        <v>15.320910973084887</v>
-      </c>
-      <c r="E6" s="1">
-        <f>(D6/100)*E$3</f>
-        <v>229813.6645962733</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F12" si="0">H6</f>
-        <v>12.5</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6:G12" si="1">(F6/100)*($E$14+$E$13)</f>
-        <v>45807.453416149066</v>
-      </c>
-      <c r="H6" s="4">
-        <f>B6*100/B$15</f>
-        <v>12.5</v>
-      </c>
-      <c r="I6" s="1">
-        <f>(H6/100)*I$3</f>
-        <v>137500</v>
-      </c>
-      <c r="J6" s="1">
-        <f>E6+G6+I6</f>
-        <v>413121.11801242235</v>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
-        <f>C7*100/C$15</f>
-        <v>10.559006211180124</v>
+        <f t="shared" ref="D7:D16" si="0">C7*100/C$17</f>
+        <v>10.144927536231885</v>
       </c>
       <c r="E7" s="1">
-        <f>(D7/100)*E$3</f>
-        <v>158385.09316770188</v>
+        <f t="shared" ref="E7:E16" si="1">(D7/100)*E$5</f>
+        <v>152.17391304347828</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
+        <f>H7</f>
         <v>12.5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>45807.453416149066</v>
+        <f>(F7/100)*($E$16+$E$15)</f>
+        <v>45.807453416149073</v>
       </c>
       <c r="H7" s="4">
-        <f>B7*100/B$15</f>
+        <f t="shared" ref="H7:H14" si="2">B7*100/B$17</f>
         <v>12.5</v>
       </c>
       <c r="I7" s="1">
-        <f>(H7/100)*I$3</f>
-        <v>137500</v>
+        <f t="shared" ref="I7:I14" si="3">(H7/100)*I$5</f>
+        <v>137.5</v>
       </c>
       <c r="J7" s="1">
-        <f>E7+G7+I7</f>
-        <v>341692.54658385098</v>
+        <f t="shared" ref="J7:J14" si="4">E7+G7+I7</f>
+        <v>335.48136645962734</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6600,272 +6537,350 @@
         <v>74</v>
       </c>
       <c r="D8" s="4">
-        <f>C8*100/C$15</f>
+        <f t="shared" si="0"/>
         <v>15.320910973084887</v>
       </c>
       <c r="E8" s="1">
-        <f>(D8/100)*E$3</f>
-        <v>229813.6645962733</v>
+        <f t="shared" si="1"/>
+        <v>229.8136645962733</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F8:F14" si="5">H8</f>
         <v>12.5</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>45807.453416149066</v>
+        <f t="shared" ref="G8:G14" si="6">(F8/100)*($E$16+$E$15)</f>
+        <v>45.807453416149073</v>
       </c>
       <c r="H8" s="4">
-        <f>B8*100/B$15</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="I8" s="1">
-        <f>(H8/100)*I$3</f>
-        <v>137500</v>
+        <f t="shared" si="3"/>
+        <v>137.5</v>
       </c>
       <c r="J8" s="1">
-        <f>E8+G8+I8</f>
-        <v>413121.11801242235</v>
+        <f t="shared" si="4"/>
+        <v>413.12111801242236</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4">
-        <f>C9*100/C$15</f>
-        <v>6.625258799171843</v>
+        <f t="shared" si="0"/>
+        <v>10.559006211180124</v>
       </c>
       <c r="E9" s="1">
-        <f>(D9/100)*E$3</f>
-        <v>99378.881987577653</v>
+        <f t="shared" si="1"/>
+        <v>158.38509316770188</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>45807.453416149066</v>
+        <f t="shared" si="6"/>
+        <v>45.807453416149073</v>
       </c>
       <c r="H9" s="4">
-        <f>B9*100/B$15</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="I9" s="1">
-        <f>(H9/100)*I$3</f>
-        <v>137500</v>
+        <f t="shared" si="3"/>
+        <v>137.5</v>
       </c>
       <c r="J9" s="1">
-        <f>E9+G9+I9</f>
-        <v>282686.33540372673</v>
+        <f t="shared" si="4"/>
+        <v>341.69254658385097</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4">
-        <f>C10*100/C$15</f>
-        <v>11.387163561076605</v>
+        <f t="shared" si="0"/>
+        <v>15.320910973084887</v>
       </c>
       <c r="E10" s="1">
-        <f>(D10/100)*E$3</f>
-        <v>170807.45341614907</v>
+        <f t="shared" si="1"/>
+        <v>229.8136645962733</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>45807.453416149066</v>
+        <f t="shared" si="6"/>
+        <v>45.807453416149073</v>
       </c>
       <c r="H10" s="4">
-        <f>B10*100/B$15</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="I10" s="1">
-        <f>(H10/100)*I$3</f>
-        <v>137500</v>
+        <f t="shared" si="3"/>
+        <v>137.5</v>
       </c>
       <c r="J10" s="1">
-        <f>E10+G10+I10</f>
-        <v>354114.90683229815</v>
+        <f t="shared" si="4"/>
+        <v>413.12111801242236</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4">
-        <f>C11*100/C$15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.625258799171843</v>
       </c>
       <c r="E11" s="1">
-        <f>(D11/100)*E$3</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>99.378881987577643</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>45807.453416149066</v>
+        <f t="shared" si="6"/>
+        <v>45.807453416149073</v>
       </c>
       <c r="H11" s="4">
-        <f>B11*100/B$15</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="I11" s="1">
-        <f>(H11/100)*I$3</f>
-        <v>137500</v>
+        <f t="shared" si="3"/>
+        <v>137.5</v>
       </c>
       <c r="J11" s="1">
-        <f>E11+G11+I11</f>
-        <v>183307.45341614907</v>
+        <f t="shared" si="4"/>
+        <v>282.68633540372673</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4">
-        <f>C12*100/C$15</f>
-        <v>6.2111801242236027</v>
+        <f t="shared" si="0"/>
+        <v>11.387163561076605</v>
       </c>
       <c r="E12" s="1">
-        <f>(D12/100)*E$3</f>
-        <v>93167.701863354043</v>
+        <f t="shared" si="1"/>
+        <v>170.80745341614906</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>45807.453416149066</v>
+        <f t="shared" si="6"/>
+        <v>45.807453416149073</v>
       </c>
       <c r="H12" s="4">
-        <f>B12*100/B$15</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="I12" s="1">
-        <f>(H12/100)*I$3</f>
-        <v>137500</v>
+        <f t="shared" si="3"/>
+        <v>137.5</v>
       </c>
       <c r="J12" s="1">
-        <f>E12+G12+I12</f>
-        <v>276475.15527950309</v>
+        <f t="shared" si="4"/>
+        <v>354.11490683229812</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f>C13*100/C$15</f>
-        <v>3.7267080745341614</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>(D13/100)*E$3</f>
-        <v>55900.621118012423</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="6"/>
+        <v>45.807453416149073</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>137.5</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="4"/>
+        <v>183.30745341614909</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2111801242236027</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>93.16770186335404</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
+        <v>45.807453416149073</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>137.5</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="4"/>
+        <v>276.4751552795031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7267080745341614</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>55.900621118012424</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <f>37+37+26</f>
         <v>100</v>
       </c>
-      <c r="D14" s="4">
-        <f>C14*100/C$15</f>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
         <v>20.703933747412009</v>
       </c>
-      <c r="E14" s="1">
-        <f>(D14/100)*E$3</f>
-        <v>310559.00621118012</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <f>SUM(B5:B14)</f>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>310.55900621118013</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>SUM(B7:B16)</f>
         <v>8</v>
       </c>
-      <c r="C15">
-        <f>SUM(C5:C14)</f>
+      <c r="C17">
+        <f>SUM(C7:C16)</f>
         <v>483</v>
       </c>
-      <c r="D15" s="4">
-        <f>SUM(D5:D14)</f>
+      <c r="D17" s="4">
+        <f>SUM(D7:D16)</f>
         <v>100</v>
       </c>
-      <c r="E15" s="1">
-        <f>SUM(E5:E14)</f>
-        <v>1500000</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <f>SUM(G5:G14)</f>
-        <v>366459.62732919253</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SUM(H5:H14)</f>
+      <c r="E17" s="1">
+        <f>SUM(E7:E16)</f>
+        <v>1500</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <f>SUM(G7:G16)</f>
+        <v>366.45962732919264</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SUM(H7:H16)</f>
         <v>100</v>
       </c>
-      <c r="I15" s="1">
-        <f>SUM(I5:I14)</f>
-        <v>1100000</v>
-      </c>
-      <c r="J15" s="1">
-        <f>SUM(J5:J14)</f>
-        <v>2600000</v>
+      <c r="I17" s="1">
+        <f>SUM(I7:I16)</f>
+        <v>1100</v>
+      </c>
+      <c r="J17" s="1">
+        <f>SUM(J7:J16)</f>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A4718-835D-EE4F-BC30-6C744C7471EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6023616-91F7-DD40-8A81-EC6A112EBBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>Zins</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Anteil</t>
   </si>
   <si>
-    <t>Gesamtkosten</t>
-  </si>
-  <si>
     <t>Objekt</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
   </si>
   <si>
     <t>Summe</t>
-  </si>
-  <si>
-    <t>Haus+Gem+Gr</t>
   </si>
   <si>
     <t>Guthaben</t>
@@ -412,7 +406,7 @@
     <t>Grobe Uebersicht in Tausend Euro ohne jegliche Verschuldung oder Kredit</t>
   </si>
   <si>
-    <t>Ziel: 50% Fremdfinanzierung</t>
+    <t>Ziel, hier nicht erfasst: 50% Fremdfinanzierung</t>
   </si>
 </sst>
 </file>
@@ -478,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -486,25 +480,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5247,12 +5264,12 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5260,7 +5277,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -5674,7 +5691,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -6190,7 +6207,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" ref="B29:L29" si="12">B27-B21</f>
@@ -6253,7 +6270,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6296,7 +6313,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6328,7 +6345,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <f>B27-B21</f>
@@ -6385,106 +6402,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23700304-2524-FC45-BB4A-B92E049D50E7}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="10" width="7.83203125" customWidth="1"/>
+    <col min="2" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>68</v>
+      <c r="A2" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>69</v>
+      <c r="A3" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="J3" s="6" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>51</v>
+      <c r="A4" s="10"/>
+      <c r="B4" s="2"/>
+      <c r="J4" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1500</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>1100</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="11">
+        <f>E5+I5</f>
+        <v>2600</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6521,14 +6529,14 @@
         <f t="shared" ref="I7:I14" si="3">(H7/100)*I$5</f>
         <v>137.5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="13">
         <f t="shared" ref="J7:J14" si="4">E7+G7+I7</f>
         <v>335.48136645962734</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6560,7 +6568,7 @@
         <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="13">
         <f t="shared" si="4"/>
         <v>413.12111801242236</v>
       </c>
@@ -6599,7 +6607,7 @@
         <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="13">
         <f t="shared" si="4"/>
         <v>341.69254658385097</v>
       </c>
@@ -6638,7 +6646,7 @@
         <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="13">
         <f t="shared" si="4"/>
         <v>413.12111801242236</v>
       </c>
@@ -6677,14 +6685,14 @@
         <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="13">
         <f t="shared" si="4"/>
         <v>282.68633540372673</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6716,7 +6724,7 @@
         <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="13">
         <f t="shared" si="4"/>
         <v>354.11490683229812</v>
       </c>
@@ -6755,7 +6763,7 @@
         <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="13">
         <f t="shared" si="4"/>
         <v>183.30745341614909</v>
       </c>
@@ -6794,7 +6802,7 @@
         <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="13">
         <f t="shared" si="4"/>
         <v>276.4751552795031</v>
       </c>
@@ -6849,36 +6857,36 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="B17" s="14">
         <f>SUM(B7:B16)</f>
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <f>SUM(C7:C16)</f>
         <v>483</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="15">
         <f>SUM(D7:D16)</f>
         <v>100</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="16">
         <f>SUM(E7:E16)</f>
         <v>1500</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
         <f>SUM(G7:G16)</f>
         <v>366.45962732919264</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="16">
         <f>SUM(H7:H16)</f>
         <v>100</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="16">
         <f>SUM(I7:I16)</f>
         <v>1100</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="16">
         <f>SUM(J7:J16)</f>
         <v>2600</v>
       </c>

--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6023616-91F7-DD40-8A81-EC6A112EBBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C70C4A-E549-F649-A726-79ED09C61EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
@@ -397,9 +397,6 @@
     <t>Gemeinschaft + N.N.</t>
   </si>
   <si>
-    <t>Araceli</t>
-  </si>
-  <si>
     <t>T. Euro</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>Ziel, hier nicht erfasst: 50% Fremdfinanzierung</t>
+  </si>
+  <si>
+    <t>Eigenkapital %</t>
   </si>
 </sst>
 </file>
@@ -6400,9 +6400,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23700304-2524-FC45-BB4A-B92E049D50E7}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6411,31 +6413,34 @@
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="2"/>
       <c r="J4" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -6465,8 +6470,11 @@
         <f>E5+I5</f>
         <v>2600</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -6477,25 +6485,25 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -6503,327 +6511,342 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D16" si="0">C7*100/C$17</f>
-        <v>10.144927536231885</v>
+        <f>C7*100/C$16</f>
+        <v>11.682242990654206</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E16" si="1">(D7/100)*E$5</f>
-        <v>152.17391304347828</v>
+        <f t="shared" ref="E7:E15" si="0">(D7/100)*E$5</f>
+        <v>175.2336448598131</v>
       </c>
       <c r="F7" s="4">
         <f>H7</f>
-        <v>12.5</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="G7" s="1">
-        <f>(F7/100)*($E$16+$E$15)</f>
-        <v>45.807453416149073</v>
+        <f>(F7/100)*($E$15+$E$14)</f>
+        <v>68.591455273698273</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7:H14" si="2">B7*100/B$17</f>
-        <v>12.5</v>
+        <f>B7*100/B$16</f>
+        <v>14.285714285714286</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:I14" si="3">(H7/100)*I$5</f>
-        <v>137.5</v>
+        <f t="shared" ref="I7:I13" si="1">(H7/100)*I$5</f>
+        <v>157.14285714285717</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" ref="J7:J14" si="4">E7+G7+I7</f>
-        <v>335.48136645962734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J7:J13" si="2">E7+G7+I7</f>
+        <v>400.96795727636857</v>
+      </c>
+      <c r="K7" s="1">
+        <f>J7*(K$5/100)</f>
+        <v>100.24198931909214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
+        <f>C8*100/C$16</f>
+        <v>11.682242990654206</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>15.320910973084887</v>
-      </c>
-      <c r="E8" s="1">
+        <v>175.2336448598131</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F13" si="3">H8</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G8" s="1">
+        <f>(F8/100)*($E$15+$E$14)</f>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H8" s="4">
+        <f>B8*100/B$16</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>229.8136645962733</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8:F14" si="5">H8</f>
-        <v>12.5</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ref="G8:G14" si="6">(F8/100)*($E$16+$E$15)</f>
-        <v>45.807453416149073</v>
-      </c>
-      <c r="H8" s="4">
+        <v>157.14285714285717</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="4"/>
-        <v>413.12111801242236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>400.96795727636857</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K13" si="4">J8*(K$5/100)</f>
+        <v>100.24198931909214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4">
+        <f>C9*100/C$16</f>
+        <v>17.289719626168225</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>10.559006211180124</v>
-      </c>
-      <c r="E9" s="1">
+        <v>259.34579439252337</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G9" s="1">
+        <f>(F9/100)*($E$15+$E$14)</f>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H9" s="4">
+        <f>B9*100/B$16</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>158.38509316770188</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="6"/>
-        <v>45.807453416149073</v>
-      </c>
-      <c r="H9" s="4">
+        <v>157.14285714285717</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J9" s="13">
+        <v>485.08010680907881</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>341.69254658385097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121.2700267022697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
+        <f>C10*100/C$16</f>
+        <v>7.4766355140186915</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>15.320910973084887</v>
-      </c>
-      <c r="E10" s="1">
+        <v>112.14953271028037</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G10" s="1">
+        <f>(F10/100)*($E$15+$E$14)</f>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H10" s="4">
+        <f>B10*100/B$16</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>229.8136645962733</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="6"/>
-        <v>45.807453416149073</v>
-      </c>
-      <c r="H10" s="4">
+        <v>157.14285714285717</v>
+      </c>
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J10" s="13">
+        <v>337.88384512683581</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>413.12111801242236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84.470961281708952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4">
+        <f>C11*100/C$16</f>
+        <v>12.850467289719626</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>6.625258799171843</v>
-      </c>
-      <c r="E11" s="1">
+        <v>192.75700934579436</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G11" s="1">
+        <f>(F11/100)*($E$15+$E$14)</f>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H11" s="4">
+        <f>B11*100/B$16</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>99.378881987577643</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="6"/>
-        <v>45.807453416149073</v>
-      </c>
-      <c r="H11" s="4">
+        <v>157.14285714285717</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J11" s="13">
+        <v>418.4913217623498</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>282.68633540372673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104.62283044058745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
+        <f>C12*100/C$16</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>11.387163561076605</v>
-      </c>
-      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G12" s="1">
+        <f>(F12/100)*($E$15+$E$14)</f>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H12" s="4">
+        <f>B12*100/B$16</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>170.80745341614906</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="6"/>
-        <v>45.807453416149073</v>
-      </c>
-      <c r="H12" s="4">
+        <v>157.14285714285717</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J12" s="13">
+        <v>225.73431241655544</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>354.11490683229812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56.43357810413886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4">
+        <f>C13*100/C$16</f>
+        <v>7.009345794392523</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+        <v>105.14018691588784</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G13" s="1">
+        <f>(F13/100)*($E$15+$E$14)</f>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H13" s="4">
+        <f>B13*100/B$16</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="6"/>
-        <v>45.807453416149073</v>
-      </c>
-      <c r="H13" s="4">
+        <v>157.14285714285717</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J13" s="13">
+        <v>330.87449933244329</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>183.30745341614909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>82.718624833110823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <f>18+19</f>
+        <v>37</v>
       </c>
       <c r="D14" s="4">
+        <f>C14*100/C$16</f>
+        <v>8.6448598130841123</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>6.2111801242236027</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>93.16770186335404</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="6"/>
-        <v>45.807453416149073</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="4"/>
-        <v>276.4751552795031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>129.67289719626169</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <f>37+37+26</f>
+        <v>100</v>
       </c>
       <c r="D15" s="4">
+        <f>C15*100/C$16</f>
+        <v>23.364485981308412</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>3.7267080745341614</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>55.900621118012424</v>
+        <v>350.46728971962619</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -6831,64 +6854,43 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>37+37+26</f>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
+        <f>SUM(B7:B15)</f>
+        <v>7</v>
+      </c>
+      <c r="C16" s="14">
+        <f>SUM(C7:C15)</f>
+        <v>428</v>
+      </c>
+      <c r="D16" s="15">
+        <f>SUM(D7:D15)</f>
         <v>100</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>20.703933747412009</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>310.55900621118013</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
-        <f>SUM(B7:B16)</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="14">
-        <f>SUM(C7:C16)</f>
-        <v>483</v>
-      </c>
-      <c r="D17" s="15">
-        <f>SUM(D7:D16)</f>
-        <v>100</v>
-      </c>
-      <c r="E17" s="16">
-        <f>SUM(E7:E16)</f>
+      <c r="E16" s="16">
+        <f>SUM(E7:E15)</f>
         <v>1500</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
-        <f>SUM(G7:G16)</f>
-        <v>366.45962732919264</v>
-      </c>
-      <c r="H17" s="16">
-        <f>SUM(H7:H16)</f>
-        <v>100</v>
-      </c>
-      <c r="I17" s="16">
-        <f>SUM(I7:I16)</f>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <f>SUM(G7:G15)</f>
+        <v>480.14018691588791</v>
+      </c>
+      <c r="H16" s="16">
+        <f>SUM(H7:H15)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="I16" s="16">
+        <f>SUM(I7:I15)</f>
         <v>1100</v>
       </c>
-      <c r="J17" s="16">
-        <f>SUM(J7:J16)</f>
+      <c r="J16" s="16">
+        <f>SUM(J7:J15)</f>
         <v>2600</v>
+      </c>
+      <c r="K16" s="16">
+        <f>SUM(K7:K15)</f>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C70C4A-E549-F649-A726-79ED09C61EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A59467-51DC-2B4F-9B56-7F6B6C08542E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
@@ -6403,7 +6403,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6471,7 +6471,7 @@
         <v>2600</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -6514,11 +6514,11 @@
         <v>50</v>
       </c>
       <c r="D7" s="4">
-        <f>C7*100/C$16</f>
+        <f t="shared" ref="D7:D15" si="0">C7*100/C$16</f>
         <v>11.682242990654206</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E15" si="0">(D7/100)*E$5</f>
+        <f t="shared" ref="E7:E15" si="1">(D7/100)*E$5</f>
         <v>175.2336448598131</v>
       </c>
       <c r="F7" s="4">
@@ -6526,24 +6526,24 @@
         <v>14.285714285714286</v>
       </c>
       <c r="G7" s="1">
-        <f>(F7/100)*($E$15+$E$14)</f>
+        <f t="shared" ref="G7:G13" si="2">(F7/100)*($E$15+$E$14)</f>
         <v>68.591455273698273</v>
       </c>
       <c r="H7" s="4">
-        <f>B7*100/B$16</f>
+        <f t="shared" ref="H7:H13" si="3">B7*100/B$16</f>
         <v>14.285714285714286</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:I13" si="1">(H7/100)*I$5</f>
+        <f t="shared" ref="I7:I13" si="4">(H7/100)*I$5</f>
         <v>157.14285714285717</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" ref="J7:J13" si="2">E7+G7+I7</f>
+        <f t="shared" ref="J7:J13" si="5">E7+G7+I7</f>
         <v>400.96795727636857</v>
       </c>
       <c r="K7" s="1">
         <f>J7*(K$5/100)</f>
-        <v>100.24198931909214</v>
+        <v>200.48397863818428</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -6557,36 +6557,36 @@
         <v>50</v>
       </c>
       <c r="D8" s="4">
-        <f>C8*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>11.682242990654206</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175.2336448598131</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F13" si="3">H8</f>
+        <f t="shared" ref="F8:F13" si="6">H8</f>
         <v>14.285714285714286</v>
       </c>
       <c r="G8" s="1">
-        <f>(F8/100)*($E$15+$E$14)</f>
+        <f t="shared" si="2"/>
         <v>68.591455273698273</v>
       </c>
       <c r="H8" s="4">
-        <f>B8*100/B$16</f>
+        <f t="shared" si="3"/>
         <v>14.285714285714286</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>157.14285714285717</v>
       </c>
       <c r="J8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>400.96795727636857</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K13" si="4">J8*(K$5/100)</f>
-        <v>100.24198931909214</v>
+        <f t="shared" ref="K8:K13" si="7">J8*(K$5/100)</f>
+        <v>200.48397863818428</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -6600,36 +6600,36 @@
         <v>74</v>
       </c>
       <c r="D9" s="4">
-        <f>C9*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>17.289719626168225</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259.34579439252337</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="6"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="3"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="G9" s="1">
-        <f>(F9/100)*($E$15+$E$14)</f>
-        <v>68.591455273698273</v>
-      </c>
-      <c r="H9" s="4">
-        <f>B9*100/B$16</f>
-        <v>14.285714285714286</v>
-      </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>157.14285714285717</v>
       </c>
       <c r="J9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>485.08010680907881</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
-        <v>121.2700267022697</v>
+        <f t="shared" si="7"/>
+        <v>242.54005340453941</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -6643,36 +6643,36 @@
         <v>32</v>
       </c>
       <c r="D10" s="4">
-        <f>C10*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>7.4766355140186915</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.14953271028037</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="6"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="3"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="G10" s="1">
-        <f>(F10/100)*($E$15+$E$14)</f>
-        <v>68.591455273698273</v>
-      </c>
-      <c r="H10" s="4">
-        <f>B10*100/B$16</f>
-        <v>14.285714285714286</v>
-      </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>157.14285714285717</v>
       </c>
       <c r="J10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>337.88384512683581</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
-        <v>84.470961281708952</v>
+        <f t="shared" si="7"/>
+        <v>168.9419225634179</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -6686,36 +6686,36 @@
         <v>55</v>
       </c>
       <c r="D11" s="4">
-        <f>C11*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>12.850467289719626</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192.75700934579436</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="6"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="3"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="G11" s="1">
-        <f>(F11/100)*($E$15+$E$14)</f>
-        <v>68.591455273698273</v>
-      </c>
-      <c r="H11" s="4">
-        <f>B11*100/B$16</f>
-        <v>14.285714285714286</v>
-      </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>157.14285714285717</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>418.4913217623498</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
-        <v>104.62283044058745</v>
+        <f t="shared" si="7"/>
+        <v>209.2456608811749</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -6729,36 +6729,36 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f>C12*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="6"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="3"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="G12" s="1">
-        <f>(F12/100)*($E$15+$E$14)</f>
-        <v>68.591455273698273</v>
-      </c>
-      <c r="H12" s="4">
-        <f>B12*100/B$16</f>
-        <v>14.285714285714286</v>
-      </c>
       <c r="I12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>157.14285714285717</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>225.73431241655544</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>56.43357810413886</v>
+        <f t="shared" si="7"/>
+        <v>112.86715620827772</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -6772,36 +6772,36 @@
         <v>30</v>
       </c>
       <c r="D13" s="4">
-        <f>C13*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>7.009345794392523</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105.14018691588784</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="6"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>68.591455273698273</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="3"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="G13" s="1">
-        <f>(F13/100)*($E$15+$E$14)</f>
-        <v>68.591455273698273</v>
-      </c>
-      <c r="H13" s="4">
-        <f>B13*100/B$16</f>
-        <v>14.285714285714286</v>
-      </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>157.14285714285717</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>330.87449933244329</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
-        <v>82.718624833110823</v>
+        <f t="shared" si="7"/>
+        <v>165.43724966622165</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -6816,11 +6816,11 @@
         <v>37</v>
       </c>
       <c r="D14" s="4">
-        <f>C14*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>8.6448598130841123</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129.67289719626169</v>
       </c>
       <c r="F14" s="1"/>
@@ -6841,11 +6841,11 @@
         <v>100</v>
       </c>
       <c r="D15" s="4">
-        <f>C15*100/C$16</f>
+        <f t="shared" si="0"/>
         <v>23.364485981308412</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350.46728971962619</v>
       </c>
       <c r="F15" s="1"/>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="K16" s="16">
         <f>SUM(K7:K15)</f>
-        <v>650</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>

--- a/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
+++ b/doc/genossenschaft/waldrain_finanz_jeremy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jta/j/doc/house/huenerberg/waldrain/html/waldrain.github.io/doc/genossenschaft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A59467-51DC-2B4F-9B56-7F6B6C08542E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FF324-7AA6-5C49-A677-1785416C95C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="29580" windowHeight="20540" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
+    <workbookView xWindow="2280" yWindow="800" windowWidth="28700" windowHeight="17940" activeTab="6" xr2:uid="{0272BFC8-9C21-3E48-8A4D-8E005CCFDEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Ohne Haus" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
   <si>
     <t>Zins</t>
   </si>
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -522,6 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6403,7 +6404,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6502,6 +6503,9 @@
       <c r="J6" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="K6" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
